--- a/Day05/Normalisasi.xlsx
+++ b/Day05/Normalisasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Purwadhika/Coding/MODUL3/Day05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA544E9-1E2B-AF40-90F6-7481D42685A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9975550-78F1-D64B-859F-716EF1E4867B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="460" windowWidth="25040" windowHeight="13700" xr2:uid="{6C67E10B-5832-E247-B862-7CC088C9E0A7}"/>
   </bookViews>
@@ -120,7 +120,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,27 +440,30 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -469,11 +474,11 @@
       <c r="B3" s="2">
         <v>20</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <f xml:space="preserve"> (A3 - MIN(A$3:A$12)) / ( MAX(A$3:A$12) - MIN(A$3:A$12))</f>
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <f xml:space="preserve"> (B3 - MIN(B$3:B$12)) / ( MAX(B$3:B$12) - MIN(B$3:B$12))</f>
         <v>0</v>
       </c>
@@ -485,11 +490,11 @@
       <c r="B4" s="2">
         <v>25</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <f t="shared" ref="C4:D12" si="0" xml:space="preserve"> (A4 - MIN(A$3:A$12)) / ( MAX(A$3:A$12) - MIN(A$3:A$12))</f>
         <v>0.24999999999999972</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -501,11 +506,11 @@
       <c r="B5" s="2">
         <v>21</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -517,11 +522,11 @@
       <c r="B6" s="2">
         <v>29</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <f t="shared" si="0"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
@@ -533,11 +538,11 @@
       <c r="B7" s="2">
         <v>30</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>9.9999999999999561E-2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -549,11 +554,11 @@
       <c r="B8" s="2">
         <v>21</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>0.29999999999999977</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -565,11 +570,11 @@
       <c r="B9" s="2">
         <v>28</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>0.34999999999999981</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
@@ -581,11 +586,11 @@
       <c r="B10" s="2">
         <v>27</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>0.65000000000000013</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
@@ -597,11 +602,11 @@
       <c r="B11" s="2">
         <v>29</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>5.0000000000000058E-2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
@@ -613,11 +618,11 @@
       <c r="B12" s="2">
         <v>30</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
